--- a/doc/美范环境构筑-windows.xlsx
+++ b/doc/美范环境构筑-windows.xlsx
@@ -262,10 +262,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>解决方式： 从其它地方复制一个过来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>安装JDK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1085,6 +1081,10 @@
   </si>
   <si>
     <t>浏览器地址栏中输入       ：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">解决方式： 从其它地方复制一个过来 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1366,37 +1366,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1413,6 +1386,33 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8144,238 +8144,231 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="14">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="26"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="14"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="26">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="26">
+        <v>4</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="26">
+        <v>5</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14">
-        <v>3</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="14"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="14">
-        <v>4</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14">
-        <v>5</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="26">
+        <v>6</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="14">
-        <v>6</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="26"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="26">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14">
-        <v>7</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="26"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="26">
+        <v>8</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="14">
-        <v>8</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="26"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="26">
+        <v>9</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="14"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="14">
-        <v>9</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="26"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="26">
+        <v>10</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="14">
-        <v>10</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="26">
+        <v>11</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="14"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="14">
-        <v>11</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="16"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="B22:E23"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -8383,10 +8376,17 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="B10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8408,7 +8408,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8418,12 +8418,12 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -8516,25 +8516,25 @@
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="B165" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F165" s="3"/>
     </row>
@@ -8569,7 +8569,7 @@
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -8819,2402 +8819,2402 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="A2" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="16"/>
+      <c r="B4" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="25"/>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="16"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="16"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="16"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="16"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="25"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="25"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="25"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="25"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="25"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="25"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="25"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="25"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="25"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="25"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="25"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="25"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="25"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="25" t="s">
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="25" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="25" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="16"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="25"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="25" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="25" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="25" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="25" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="25" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="16"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="25"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="25" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="25"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="25" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="25" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="25"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="25"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="25" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="25" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="25"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="25" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="16"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="25"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="25" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="25" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="16"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="16"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="16"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="16"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="16"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="25"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="25"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="25"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="25"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="25"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="25" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="16"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="16"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="16"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="16"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="25"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="25"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="25"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="25"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="25" t="s">
+    <row r="64" spans="2:2">
+      <c r="B64" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="25" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" s="16"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="16"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="25"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="25"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="25" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="25" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="25" t="s">
+    <row r="70" spans="2:2">
+      <c r="B70" s="16"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="25"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="25" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="25" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="25" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" s="16"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="16"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="16"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="16"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="16"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="16"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="16"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="25"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="25"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="25"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="25"/>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="25"/>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="25"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="25"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25" t="s">
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25" t="s">
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25" t="s">
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25" t="s">
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="17"/>
+      <c r="B89" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="26"/>
-      <c r="B89" s="25" t="s">
+      <c r="C89" s="16"/>
+      <c r="D89" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25" t="s">
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="17"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="26"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="26" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="17"/>
+      <c r="B91" s="16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="26"/>
-      <c r="B91" s="25" t="s">
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="17"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="26"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25" t="s">
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25" t="s">
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25" t="s">
+      <c r="D94" s="16"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="25"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25" t="s">
+      <c r="D95" s="16"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D95" s="25"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25" t="s">
+      <c r="D96" s="16"/>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D96" s="25"/>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="B97" s="25" t="s">
+      <c r="C97" s="16"/>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="25"/>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="25" t="s">
+      <c r="C98" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C98" s="25" t="s">
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="25" t="s">
+      <c r="C99" s="16"/>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="16"/>
+      <c r="C100" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="25"/>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="25"/>
-      <c r="C100" s="25" t="s">
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="16"/>
+      <c r="C101" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="25"/>
-      <c r="C101" s="25" t="s">
+    <row r="102" spans="2:3">
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-    </row>
-    <row r="106" spans="2:3">
-      <c r="B106" s="25" t="s">
+      <c r="C106" s="16"/>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="25"/>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="25" t="s">
+      <c r="C107" s="16"/>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C107" s="25"/>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="25" t="s">
+      <c r="C108" s="16"/>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="25"/>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="25" t="s">
+      <c r="C109" s="16"/>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="25"/>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="25" t="s">
+      <c r="C110" s="16"/>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="25"/>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="25" t="s">
+      <c r="C111" s="16"/>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="25"/>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="25" t="s">
+      <c r="C112" s="16"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C112" s="25"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="25" t="s">
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="25" t="s">
+    <row r="115" spans="2:2">
+      <c r="B115" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="25" t="s">
+    <row r="116" spans="2:2">
+      <c r="B116" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="25" t="s">
+    <row r="117" spans="2:2">
+      <c r="B117" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="25" t="s">
+    <row r="118" spans="2:2">
+      <c r="B118" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="25" t="s">
+    <row r="119" spans="2:2">
+      <c r="B119" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="25" t="s">
+    <row r="120" spans="2:2">
+      <c r="B120" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="25" t="s">
+    <row r="121" spans="2:2">
+      <c r="B121" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="25" t="s">
+    <row r="122" spans="2:2">
+      <c r="B122" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="25" t="s">
+    <row r="123" spans="2:2">
+      <c r="B123" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="25" t="s">
+    <row r="124" spans="2:2">
+      <c r="B124" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="25" t="s">
+    <row r="125" spans="2:2">
+      <c r="B125" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="25" t="s">
+    <row r="126" spans="2:2">
+      <c r="B126" s="16"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="25"/>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="25" t="s">
+    <row r="128" spans="2:2">
+      <c r="B128" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="25" t="s">
+    <row r="129" spans="2:2">
+      <c r="B129" s="16"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="16"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="25"/>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="25"/>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="25" t="s">
+    <row r="132" spans="2:2">
+      <c r="B132" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="25" t="s">
+    <row r="133" spans="2:2">
+      <c r="B133" s="16"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="16"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="16"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="16"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="16"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="25"/>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="25"/>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="25"/>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="25"/>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="25"/>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="25" t="s">
+    <row r="139" spans="2:2">
+      <c r="B139" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="25" t="s">
+    <row r="140" spans="2:2">
+      <c r="B140" s="16"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="25"/>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="25" t="s">
+    <row r="142" spans="2:2">
+      <c r="B142" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="25" t="s">
+    <row r="143" spans="2:2">
+      <c r="B143" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="25" t="s">
+    <row r="144" spans="2:2">
+      <c r="B144" s="16"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="25"/>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="25" t="s">
+    <row r="146" spans="2:2">
+      <c r="B146" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="25" t="s">
+    <row r="147" spans="2:2">
+      <c r="B147" s="16"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="25"/>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="25" t="s">
+    <row r="149" spans="2:2">
+      <c r="B149" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="25" t="s">
+    <row r="150" spans="2:2">
+      <c r="B150" s="16"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="25"/>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="25" t="s">
+    <row r="152" spans="2:2">
+      <c r="B152" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="25" t="s">
+    <row r="153" spans="2:2">
+      <c r="B153" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="25" t="s">
+    <row r="154" spans="2:2">
+      <c r="B154" s="16"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="16"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="16"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="16"/>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="25"/>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="25"/>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="25"/>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="25"/>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="25" t="s">
+    <row r="159" spans="2:2">
+      <c r="B159" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="25" t="s">
+    <row r="160" spans="2:2">
+      <c r="B160" s="16"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="16"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="16"/>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="25"/>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="25"/>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="25"/>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="25" t="s">
+    <row r="164" spans="2:2">
+      <c r="B164" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="25" t="s">
+    <row r="165" spans="2:2">
+      <c r="B165" s="16"/>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="16"/>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="16"/>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="25"/>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="25"/>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="25"/>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="25" t="s">
+    <row r="169" spans="2:2">
+      <c r="B169" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="25" t="s">
+    <row r="170" spans="2:2">
+      <c r="B170" s="16"/>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="16"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="16"/>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="16"/>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="16"/>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="16"/>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="16"/>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="16"/>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="16"/>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="16"/>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="16"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="16"/>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="16"/>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="16"/>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="16"/>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="16"/>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="16"/>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="16"/>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="25"/>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="25"/>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="25"/>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="25"/>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="25"/>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="25"/>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="25"/>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="25"/>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="25"/>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="25"/>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="25"/>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="25"/>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="25"/>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="25"/>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="25"/>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="25"/>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="25"/>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="25"/>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="27" t="s">
+    <row r="189" spans="2:2">
+      <c r="B189" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="25" t="s">
+    <row r="190" spans="2:2">
+      <c r="B190" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="25" t="s">
+    <row r="191" spans="2:2">
+      <c r="B191" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
-      <c r="B191" s="25" t="s">
+    <row r="192" spans="2:2">
+      <c r="B192" s="16"/>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="16"/>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="16"/>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="16"/>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="16"/>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="16"/>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="16"/>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
-      <c r="B192" s="25"/>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="25"/>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="25"/>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="25"/>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="25"/>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="25"/>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="25"/>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="25" t="s">
+    <row r="200" spans="2:2">
+      <c r="B200" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="25" t="s">
+    <row r="201" spans="2:2">
+      <c r="B201" s="16"/>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="16"/>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="16"/>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="25"/>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="25"/>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="25"/>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="25" t="s">
+    <row r="205" spans="2:2">
+      <c r="B205" s="16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="25" t="s">
+    <row r="206" spans="2:2">
+      <c r="B206" s="16"/>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="16"/>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="16"/>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="16"/>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="16"/>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="16"/>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="25"/>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="25"/>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="25"/>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="25"/>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="25"/>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="25"/>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="25" t="s">
+    <row r="213" spans="2:2">
+      <c r="B213" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
-      <c r="B213" s="27" t="s">
+    <row r="214" spans="2:2">
+      <c r="B214" s="16"/>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="16"/>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="16"/>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="16"/>
+    </row>
+    <row r="218" spans="2:2" ht="49.5">
+      <c r="B218" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="25"/>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="25"/>
-    </row>
-    <row r="216" spans="2:2">
-      <c r="B216" s="25"/>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="25"/>
-    </row>
-    <row r="218" spans="2:2" ht="49.5">
-      <c r="B218" s="28" t="s">
+    <row r="219" spans="2:2">
+      <c r="B219" s="18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="27" t="s">
+    <row r="220" spans="2:2">
+      <c r="B220" s="18" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="27" t="s">
+    <row r="221" spans="2:2">
+      <c r="B221" s="18" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="27" t="s">
+    <row r="222" spans="2:2">
+      <c r="B222" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
-      <c r="B222" s="27" t="s">
+    <row r="223" spans="2:2">
+      <c r="B223" s="18" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="27" t="s">
+    <row r="224" spans="2:2">
+      <c r="B224" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="27" t="s">
+    <row r="225" spans="2:2">
+      <c r="B225" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="27" t="s">
+    <row r="226" spans="2:2">
+      <c r="B226" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="27" t="s">
+    <row r="227" spans="2:2">
+      <c r="B227" s="18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="27" t="s">
+    <row r="228" spans="2:2">
+      <c r="B228" s="18" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
-      <c r="B228" s="27" t="s">
+    <row r="229" spans="2:2">
+      <c r="B229" s="16"/>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="25"/>
-    </row>
-    <row r="230" spans="2:2">
-      <c r="B230" s="27" t="s">
+    <row r="231" spans="2:2">
+      <c r="B231" s="18" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="27" t="s">
+    <row r="232" spans="2:2">
+      <c r="B232" s="18" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="27" t="s">
+    <row r="233" spans="2:2">
+      <c r="B233" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="27" t="s">
+    <row r="235" spans="2:2">
+      <c r="B235" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="27" t="s">
+    <row r="236" spans="2:2">
+      <c r="B236" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
-      <c r="B236" s="27" t="s">
+    <row r="237" spans="2:2">
+      <c r="B237" s="16"/>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="16"/>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="16"/>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="16"/>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="16"/>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
-      <c r="B237" s="25"/>
-    </row>
-    <row r="238" spans="2:2">
-      <c r="B238" s="25"/>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="25"/>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="25"/>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="25"/>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242" s="27" t="s">
+    <row r="243" spans="2:2">
+      <c r="B243" s="18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="27" t="s">
+    <row r="244" spans="2:2">
+      <c r="B244" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
-      <c r="B244" s="27" t="s">
+    <row r="245" spans="2:2">
+      <c r="B245" s="18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
-      <c r="B245" s="27" t="s">
+    <row r="246" spans="2:2">
+      <c r="B246" s="18"/>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="16"/>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="16"/>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
-      <c r="B246" s="27"/>
-    </row>
-    <row r="247" spans="2:2">
-      <c r="B247" s="25"/>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248" s="25"/>
-    </row>
-    <row r="249" spans="2:2">
-      <c r="B249" s="27" t="s">
+    <row r="250" spans="2:2">
+      <c r="B250" s="18" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="250" spans="2:2">
-      <c r="B250" s="27" t="s">
+    <row r="251" spans="2:2">
+      <c r="B251" s="18" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
-      <c r="B251" s="27" t="s">
+    <row r="252" spans="2:2">
+      <c r="B252" s="18"/>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="18"/>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="18"/>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="18"/>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="18"/>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="18"/>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
-      <c r="B252" s="27"/>
-    </row>
-    <row r="253" spans="2:2">
-      <c r="B253" s="27"/>
-    </row>
-    <row r="254" spans="2:2">
-      <c r="B254" s="27"/>
-    </row>
-    <row r="255" spans="2:2">
-      <c r="B255" s="27"/>
-    </row>
-    <row r="256" spans="2:2">
-      <c r="B256" s="27"/>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257" s="27"/>
-    </row>
-    <row r="258" spans="2:2">
-      <c r="B258" s="27" t="s">
+    <row r="259" spans="2:2">
+      <c r="B259" s="18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="259" spans="2:2">
-      <c r="B259" s="27" t="s">
+    <row r="260" spans="2:2">
+      <c r="B260" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="260" spans="2:2">
-      <c r="B260" s="27" t="s">
+    <row r="261" spans="2:2">
+      <c r="B261" s="18"/>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="18"/>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="18"/>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="18"/>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="261" spans="2:2">
-      <c r="B261" s="27"/>
-    </row>
-    <row r="262" spans="2:2">
-      <c r="B262" s="27"/>
-    </row>
-    <row r="263" spans="2:2">
-      <c r="B263" s="27"/>
-    </row>
-    <row r="264" spans="2:2">
-      <c r="B264" s="27"/>
-    </row>
-    <row r="265" spans="2:2">
-      <c r="B265" s="27" t="s">
+    <row r="266" spans="2:2">
+      <c r="B266" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="266" spans="2:2">
-      <c r="B266" s="27" t="s">
+    <row r="267" spans="2:2">
+      <c r="B267" s="18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="267" spans="2:2">
-      <c r="B267" s="27" t="s">
+    <row r="268" spans="2:2">
+      <c r="B268" s="18"/>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="18"/>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="18"/>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="18" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="268" spans="2:2">
-      <c r="B268" s="27"/>
-    </row>
-    <row r="269" spans="2:2">
-      <c r="B269" s="27"/>
-    </row>
-    <row r="270" spans="2:2">
-      <c r="B270" s="27"/>
-    </row>
-    <row r="271" spans="2:2">
-      <c r="B271" s="27" t="s">
+    <row r="272" spans="2:2">
+      <c r="B272" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
-      <c r="B272" s="27" t="s">
+    <row r="273" spans="2:2">
+      <c r="B273" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="273" spans="2:2">
-      <c r="B273" s="27" t="s">
+    <row r="274" spans="2:2">
+      <c r="B274" s="18"/>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="18"/>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="18"/>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="18"/>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="274" spans="2:2">
-      <c r="B274" s="27"/>
-    </row>
-    <row r="275" spans="2:2">
-      <c r="B275" s="27"/>
-    </row>
-    <row r="276" spans="2:2">
-      <c r="B276" s="27"/>
-    </row>
-    <row r="277" spans="2:2">
-      <c r="B277" s="27"/>
-    </row>
-    <row r="278" spans="2:2">
-      <c r="B278" s="27" t="s">
+    <row r="279" spans="2:2">
+      <c r="B279" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="279" spans="2:2">
-      <c r="B279" s="27" t="s">
+    <row r="280" spans="2:2">
+      <c r="B280" s="18"/>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="18"/>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="18"/>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="18"/>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="280" spans="2:2">
-      <c r="B280" s="27"/>
-    </row>
-    <row r="281" spans="2:2">
-      <c r="B281" s="27"/>
-    </row>
-    <row r="282" spans="2:2">
-      <c r="B282" s="27"/>
-    </row>
-    <row r="283" spans="2:2">
-      <c r="B283" s="27"/>
-    </row>
-    <row r="284" spans="2:2">
-      <c r="B284" s="27" t="s">
+    <row r="285" spans="2:2">
+      <c r="B285" s="18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="285" spans="2:2">
-      <c r="B285" s="27" t="s">
+    <row r="286" spans="2:2">
+      <c r="B286" s="18"/>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" s="18"/>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="18"/>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="286" spans="2:2">
-      <c r="B286" s="27"/>
-    </row>
-    <row r="287" spans="2:2">
-      <c r="B287" s="27"/>
-    </row>
-    <row r="288" spans="2:2">
-      <c r="B288" s="27"/>
-    </row>
-    <row r="289" spans="2:2">
-      <c r="B289" s="27" t="s">
+    <row r="290" spans="2:2">
+      <c r="B290" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="290" spans="2:2">
-      <c r="B290" s="27" t="s">
+    <row r="291" spans="2:2">
+      <c r="B291" s="16"/>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="16"/>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="16"/>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="16"/>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="291" spans="2:2">
-      <c r="B291" s="25"/>
-    </row>
-    <row r="292" spans="2:2">
-      <c r="B292" s="25"/>
-    </row>
-    <row r="293" spans="2:2">
-      <c r="B293" s="25"/>
-    </row>
-    <row r="294" spans="2:2">
-      <c r="B294" s="25"/>
-    </row>
-    <row r="295" spans="2:2">
-      <c r="B295" s="27" t="s">
+    <row r="296" spans="2:2">
+      <c r="B296" s="18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="296" spans="2:2">
-      <c r="B296" s="27" t="s">
+    <row r="297" spans="2:2">
+      <c r="B297" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="297" spans="2:2">
-      <c r="B297" s="27" t="s">
+    <row r="298" spans="2:2">
+      <c r="B298" s="16"/>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="16"/>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="16"/>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="298" spans="2:2">
-      <c r="B298" s="25"/>
-    </row>
-    <row r="299" spans="2:2">
-      <c r="B299" s="25"/>
-    </row>
-    <row r="300" spans="2:2">
-      <c r="B300" s="25"/>
-    </row>
-    <row r="301" spans="2:2">
-      <c r="B301" s="27" t="s">
+    <row r="302" spans="2:2">
+      <c r="B302" s="18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="302" spans="2:2">
-      <c r="B302" s="27" t="s">
+    <row r="303" spans="2:2">
+      <c r="B303" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="303" spans="2:2">
-      <c r="B303" s="27" t="s">
+    <row r="304" spans="2:2">
+      <c r="B304" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="304" spans="2:2">
-      <c r="B304" s="27" t="s">
+    <row r="305" spans="2:2">
+      <c r="B305" s="16"/>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="16"/>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="16"/>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="16"/>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="16"/>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="305" spans="2:2">
-      <c r="B305" s="25"/>
-    </row>
-    <row r="306" spans="2:2">
-      <c r="B306" s="25"/>
-    </row>
-    <row r="307" spans="2:2">
-      <c r="B307" s="25"/>
-    </row>
-    <row r="308" spans="2:2">
-      <c r="B308" s="25"/>
-    </row>
-    <row r="309" spans="2:2">
-      <c r="B309" s="25"/>
-    </row>
-    <row r="310" spans="2:2">
-      <c r="B310" s="27" t="s">
+    <row r="311" spans="2:2">
+      <c r="B311" s="18" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="311" spans="2:2">
-      <c r="B311" s="27" t="s">
+    <row r="312" spans="2:2">
+      <c r="B312" s="18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="312" spans="2:2">
-      <c r="B312" s="27" t="s">
+    <row r="313" spans="2:2">
+      <c r="B313" s="16"/>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="16"/>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="16"/>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="16"/>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="313" spans="2:2">
-      <c r="B313" s="25"/>
-    </row>
-    <row r="314" spans="2:2">
-      <c r="B314" s="25"/>
-    </row>
-    <row r="315" spans="2:2">
-      <c r="B315" s="25"/>
-    </row>
-    <row r="316" spans="2:2">
-      <c r="B316" s="25"/>
-    </row>
-    <row r="317" spans="2:2">
-      <c r="B317" s="27" t="s">
+    <row r="318" spans="2:2">
+      <c r="B318" s="18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="318" spans="2:2">
-      <c r="B318" s="27" t="s">
+    <row r="319" spans="2:2">
+      <c r="B319" s="18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="319" spans="2:2">
-      <c r="B319" s="27" t="s">
+    <row r="320" spans="2:2">
+      <c r="B320" s="16"/>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" s="16"/>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="16"/>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" s="16"/>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" s="16"/>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" s="18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="320" spans="2:2">
-      <c r="B320" s="25"/>
-    </row>
-    <row r="321" spans="2:2">
-      <c r="B321" s="25"/>
-    </row>
-    <row r="322" spans="2:2">
-      <c r="B322" s="25"/>
-    </row>
-    <row r="323" spans="2:2">
-      <c r="B323" s="25"/>
-    </row>
-    <row r="324" spans="2:2">
-      <c r="B324" s="25"/>
-    </row>
-    <row r="325" spans="2:2">
-      <c r="B325" s="27" t="s">
+    <row r="326" spans="2:2">
+      <c r="B326" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="326" spans="2:2">
-      <c r="B326" s="27" t="s">
+    <row r="327" spans="2:2">
+      <c r="B327" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="327" spans="2:2">
-      <c r="B327" s="27" t="s">
+    <row r="328" spans="2:2">
+      <c r="B328" s="16"/>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" s="16"/>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="16"/>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="328" spans="2:2">
-      <c r="B328" s="25"/>
-    </row>
-    <row r="329" spans="2:2">
-      <c r="B329" s="25"/>
-    </row>
-    <row r="330" spans="2:2">
-      <c r="B330" s="25"/>
-    </row>
-    <row r="331" spans="2:2">
-      <c r="B331" s="27" t="s">
+    <row r="332" spans="2:2">
+      <c r="B332" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="332" spans="2:2">
-      <c r="B332" s="27" t="s">
+    <row r="333" spans="2:2">
+      <c r="B333" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="333" spans="2:2">
-      <c r="B333" s="27" t="s">
+    <row r="334" spans="2:2">
+      <c r="B334" s="16"/>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="16"/>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="16"/>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" s="16"/>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="334" spans="2:2">
-      <c r="B334" s="25"/>
-    </row>
-    <row r="335" spans="2:2">
-      <c r="B335" s="25"/>
-    </row>
-    <row r="336" spans="2:2">
-      <c r="B336" s="25"/>
-    </row>
-    <row r="337" spans="2:2">
-      <c r="B337" s="25"/>
-    </row>
-    <row r="338" spans="2:2">
-      <c r="B338" s="27" t="s">
+    <row r="339" spans="2:2">
+      <c r="B339" s="18" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="339" spans="2:2">
-      <c r="B339" s="27" t="s">
+    <row r="340" spans="2:2">
+      <c r="B340" s="18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="340" spans="2:2">
-      <c r="B340" s="27" t="s">
+    <row r="341" spans="2:2">
+      <c r="B341" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="341" spans="2:2">
-      <c r="B341" s="27" t="s">
+    <row r="342" spans="2:2">
+      <c r="B342" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="342" spans="2:2">
-      <c r="B342" s="27" t="s">
+    <row r="343" spans="2:2">
+      <c r="B343" s="18"/>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="16"/>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="16"/>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="343" spans="2:2">
-      <c r="B343" s="27"/>
-    </row>
-    <row r="344" spans="2:2">
-      <c r="B344" s="25"/>
-    </row>
-    <row r="345" spans="2:2">
-      <c r="B345" s="25"/>
-    </row>
-    <row r="346" spans="2:2">
-      <c r="B346" s="27" t="s">
+    <row r="347" spans="2:2">
+      <c r="B347" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="347" spans="2:2">
-      <c r="B347" s="27" t="s">
+    <row r="348" spans="2:2">
+      <c r="B348" s="18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="348" spans="2:2">
-      <c r="B348" s="27" t="s">
+    <row r="349" spans="2:2">
+      <c r="B349" s="16"/>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="16"/>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="16"/>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="349" spans="2:2">
-      <c r="B349" s="25"/>
-    </row>
-    <row r="350" spans="2:2">
-      <c r="B350" s="25"/>
-    </row>
-    <row r="351" spans="2:2">
-      <c r="B351" s="25"/>
-    </row>
-    <row r="352" spans="2:2">
-      <c r="B352" s="27" t="s">
+    <row r="353" spans="2:2">
+      <c r="B353" s="18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
-      <c r="B353" s="27" t="s">
+    <row r="354" spans="2:2">
+      <c r="B354" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="354" spans="2:2">
-      <c r="B354" s="27" t="s">
+    <row r="355" spans="2:2">
+      <c r="B355" s="16"/>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" s="16"/>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" s="16"/>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" s="16"/>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" s="18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="355" spans="2:2">
-      <c r="B355" s="25"/>
-    </row>
-    <row r="356" spans="2:2">
-      <c r="B356" s="25"/>
-    </row>
-    <row r="357" spans="2:2">
-      <c r="B357" s="25"/>
-    </row>
-    <row r="358" spans="2:2">
-      <c r="B358" s="25"/>
-    </row>
-    <row r="359" spans="2:2">
-      <c r="B359" s="27" t="s">
+    <row r="360" spans="2:2">
+      <c r="B360" s="18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="360" spans="2:2">
-      <c r="B360" s="27" t="s">
+    <row r="361" spans="2:2">
+      <c r="B361" s="18" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="361" spans="2:2">
-      <c r="B361" s="27" t="s">
+    <row r="362" spans="2:2">
+      <c r="B362" s="18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="362" spans="2:2">
-      <c r="B362" s="27" t="s">
+    <row r="363" spans="2:2">
+      <c r="B363" s="16"/>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" s="16"/>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" s="16"/>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" s="16"/>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" s="16"/>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" s="16"/>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" s="16"/>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" s="18" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="363" spans="2:2">
-      <c r="B363" s="25"/>
-    </row>
-    <row r="364" spans="2:2">
-      <c r="B364" s="25"/>
-    </row>
-    <row r="365" spans="2:2">
-      <c r="B365" s="25"/>
-    </row>
-    <row r="366" spans="2:2">
-      <c r="B366" s="25"/>
-    </row>
-    <row r="367" spans="2:2">
-      <c r="B367" s="25"/>
-    </row>
-    <row r="368" spans="2:2">
-      <c r="B368" s="25"/>
-    </row>
-    <row r="369" spans="2:2">
-      <c r="B369" s="25"/>
-    </row>
-    <row r="370" spans="2:2">
-      <c r="B370" s="27" t="s">
+    <row r="371" spans="2:2">
+      <c r="B371" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="371" spans="2:2">
-      <c r="B371" s="27" t="s">
+    <row r="372" spans="2:2">
+      <c r="B372" s="18" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="372" spans="2:2">
-      <c r="B372" s="27" t="s">
+    <row r="373" spans="2:2">
+      <c r="B373" s="16"/>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374" s="16"/>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" s="16"/>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" s="18" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="373" spans="2:2">
-      <c r="B373" s="25"/>
-    </row>
-    <row r="374" spans="2:2">
-      <c r="B374" s="25"/>
-    </row>
-    <row r="375" spans="2:2">
-      <c r="B375" s="25"/>
-    </row>
-    <row r="376" spans="2:2">
-      <c r="B376" s="27" t="s">
+    <row r="377" spans="2:2">
+      <c r="B377" s="18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="377" spans="2:2">
-      <c r="B377" s="27" t="s">
+    <row r="378" spans="2:2">
+      <c r="B378" s="18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="378" spans="2:2">
-      <c r="B378" s="27" t="s">
+    <row r="379" spans="2:2">
+      <c r="B379" s="16"/>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" s="16"/>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" s="16"/>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" s="16"/>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383" s="16"/>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" s="19" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="379" spans="2:2">
-      <c r="B379" s="25"/>
-    </row>
-    <row r="380" spans="2:2">
-      <c r="B380" s="25"/>
-    </row>
-    <row r="381" spans="2:2">
-      <c r="B381" s="25"/>
-    </row>
-    <row r="382" spans="2:2">
-      <c r="B382" s="25"/>
-    </row>
-    <row r="383" spans="2:2">
-      <c r="B383" s="25"/>
-    </row>
-    <row r="384" spans="2:2">
-      <c r="B384" s="28" t="s">
+    <row r="385" spans="2:2">
+      <c r="B385" s="18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="385" spans="2:2">
-      <c r="B385" s="27" t="s">
+    <row r="386" spans="2:2">
+      <c r="B386" s="18" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="386" spans="2:2">
-      <c r="B386" s="27" t="s">
+    <row r="387" spans="2:2">
+      <c r="B387" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="387" spans="2:2">
-      <c r="B387" s="27" t="s">
+    <row r="388" spans="2:2">
+      <c r="B388" s="18"/>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" s="18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="388" spans="2:2">
-      <c r="B388" s="27"/>
-    </row>
-    <row r="389" spans="2:2">
-      <c r="B389" s="27" t="s">
+    <row r="390" spans="2:2">
+      <c r="B390" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="390" spans="2:2">
-      <c r="B390" s="27" t="s">
+    <row r="391" spans="2:2">
+      <c r="B391" s="18"/>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" s="18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="391" spans="2:2">
-      <c r="B391" s="27"/>
-    </row>
-    <row r="392" spans="2:2">
-      <c r="B392" s="27" t="s">
+    <row r="393" spans="2:2">
+      <c r="B393" s="18" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="393" spans="2:2">
-      <c r="B393" s="27" t="s">
+    <row r="394" spans="2:2">
+      <c r="B394" s="18"/>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="394" spans="2:2">
-      <c r="B394" s="27"/>
-    </row>
-    <row r="395" spans="2:2">
-      <c r="B395" s="27" t="s">
+    <row r="396" spans="2:2">
+      <c r="B396" s="18" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="396" spans="2:2">
-      <c r="B396" s="27" t="s">
+    <row r="397" spans="2:2">
+      <c r="B397" s="18"/>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" s="18" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="397" spans="2:2">
-      <c r="B397" s="27"/>
-    </row>
-    <row r="398" spans="2:2">
-      <c r="B398" s="27" t="s">
+    <row r="399" spans="2:2">
+      <c r="B399" s="18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="399" spans="2:2">
-      <c r="B399" s="27" t="s">
+    <row r="400" spans="2:2">
+      <c r="B400" s="18"/>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" s="18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="400" spans="2:2">
-      <c r="B400" s="27"/>
-    </row>
-    <row r="401" spans="2:2">
-      <c r="B401" s="27" t="s">
+    <row r="402" spans="2:2">
+      <c r="B402" s="18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="402" spans="2:2">
-      <c r="B402" s="27" t="s">
+    <row r="403" spans="2:2">
+      <c r="B403" s="18"/>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404" s="18"/>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="403" spans="2:2">
-      <c r="B403" s="27"/>
-    </row>
-    <row r="404" spans="2:2">
-      <c r="B404" s="27"/>
-    </row>
-    <row r="405" spans="2:2">
-      <c r="B405" s="25" t="s">
+    <row r="406" spans="2:2">
+      <c r="B406" s="18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="406" spans="2:2">
-      <c r="B406" s="27" t="s">
+    <row r="407" spans="2:2">
+      <c r="B407" s="18" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="407" spans="2:2">
-      <c r="B407" s="27" t="s">
+    <row r="408" spans="2:2">
+      <c r="B408" s="18" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="408" spans="2:2">
-      <c r="B408" s="27" t="s">
+    <row r="409" spans="2:2">
+      <c r="B409" s="16"/>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" s="16"/>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411" s="16"/>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" s="16"/>
+    </row>
+    <row r="413" spans="2:2">
+      <c r="B413" s="16"/>
+    </row>
+    <row r="414" spans="2:2">
+      <c r="B414" s="16"/>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415" s="18" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="409" spans="2:2">
-      <c r="B409" s="25"/>
-    </row>
-    <row r="410" spans="2:2">
-      <c r="B410" s="25"/>
-    </row>
-    <row r="411" spans="2:2">
-      <c r="B411" s="25"/>
-    </row>
-    <row r="412" spans="2:2">
-      <c r="B412" s="25"/>
-    </row>
-    <row r="413" spans="2:2">
-      <c r="B413" s="25"/>
-    </row>
-    <row r="414" spans="2:2">
-      <c r="B414" s="25"/>
-    </row>
-    <row r="415" spans="2:2">
-      <c r="B415" s="27" t="s">
+    <row r="416" spans="2:2">
+      <c r="B416" s="18" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="416" spans="2:2">
-      <c r="B416" s="27" t="s">
+    <row r="417" spans="2:2">
+      <c r="B417" s="18" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="417" spans="2:2">
-      <c r="B417" s="27" t="s">
+    <row r="418" spans="2:2">
+      <c r="B418" s="16"/>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" s="16"/>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420" s="16"/>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" s="16"/>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" s="16"/>
+    </row>
+    <row r="423" spans="2:2">
+      <c r="B423" s="16"/>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424" s="18" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="418" spans="2:2">
-      <c r="B418" s="25"/>
-    </row>
-    <row r="419" spans="2:2">
-      <c r="B419" s="25"/>
-    </row>
-    <row r="420" spans="2:2">
-      <c r="B420" s="25"/>
-    </row>
-    <row r="421" spans="2:2">
-      <c r="B421" s="25"/>
-    </row>
-    <row r="422" spans="2:2">
-      <c r="B422" s="25"/>
-    </row>
-    <row r="423" spans="2:2">
-      <c r="B423" s="25"/>
-    </row>
-    <row r="424" spans="2:2">
-      <c r="B424" s="27" t="s">
+    <row r="425" spans="2:2">
+      <c r="B425" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="425" spans="2:2">
-      <c r="B425" s="27" t="s">
+    <row r="426" spans="2:2">
+      <c r="B426" s="18"/>
+    </row>
+    <row r="427" spans="2:2">
+      <c r="B427" s="16"/>
+    </row>
+    <row r="428" spans="2:2">
+      <c r="B428" s="16"/>
+    </row>
+    <row r="429" spans="2:2">
+      <c r="B429" s="16"/>
+    </row>
+    <row r="430" spans="2:2">
+      <c r="B430" s="16"/>
+    </row>
+    <row r="431" spans="2:2">
+      <c r="B431" s="16"/>
+    </row>
+    <row r="432" spans="2:2">
+      <c r="B432" s="18" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="426" spans="2:2">
-      <c r="B426" s="27"/>
-    </row>
-    <row r="427" spans="2:2">
-      <c r="B427" s="25"/>
-    </row>
-    <row r="428" spans="2:2">
-      <c r="B428" s="25"/>
-    </row>
-    <row r="429" spans="2:2">
-      <c r="B429" s="25"/>
-    </row>
-    <row r="430" spans="2:2">
-      <c r="B430" s="25"/>
-    </row>
-    <row r="431" spans="2:2">
-      <c r="B431" s="25"/>
-    </row>
-    <row r="432" spans="2:2">
-      <c r="B432" s="27" t="s">
+    <row r="433" spans="2:2">
+      <c r="B433" s="18" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="433" spans="2:2">
-      <c r="B433" s="27" t="s">
+    <row r="434" spans="2:2">
+      <c r="B434" s="16"/>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" s="16"/>
+    </row>
+    <row r="436" spans="2:2">
+      <c r="B436" s="16"/>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437" s="16"/>
+    </row>
+    <row r="438" spans="2:2">
+      <c r="B438" s="16"/>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439" s="16"/>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440" s="18" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="434" spans="2:2">
-      <c r="B434" s="25"/>
-    </row>
-    <row r="435" spans="2:2">
-      <c r="B435" s="25"/>
-    </row>
-    <row r="436" spans="2:2">
-      <c r="B436" s="25"/>
-    </row>
-    <row r="437" spans="2:2">
-      <c r="B437" s="25"/>
-    </row>
-    <row r="438" spans="2:2">
-      <c r="B438" s="25"/>
-    </row>
-    <row r="439" spans="2:2">
-      <c r="B439" s="25"/>
-    </row>
-    <row r="440" spans="2:2">
-      <c r="B440" s="27" t="s">
+    <row r="441" spans="2:2">
+      <c r="B441" s="18" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="441" spans="2:2">
-      <c r="B441" s="27" t="s">
+    <row r="442" spans="2:2">
+      <c r="B442" s="16"/>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" s="16"/>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" s="16"/>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" s="16"/>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" s="16"/>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447" s="16"/>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448" s="16"/>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" s="18" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="442" spans="2:2">
-      <c r="B442" s="25"/>
-    </row>
-    <row r="443" spans="2:2">
-      <c r="B443" s="25"/>
-    </row>
-    <row r="444" spans="2:2">
-      <c r="B444" s="25"/>
-    </row>
-    <row r="445" spans="2:2">
-      <c r="B445" s="25"/>
-    </row>
-    <row r="446" spans="2:2">
-      <c r="B446" s="25"/>
-    </row>
-    <row r="447" spans="2:2">
-      <c r="B447" s="25"/>
-    </row>
-    <row r="448" spans="2:2">
-      <c r="B448" s="25"/>
-    </row>
-    <row r="449" spans="2:2">
-      <c r="B449" s="27" t="s">
+    <row r="450" spans="2:2">
+      <c r="B450" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="450" spans="2:2">
-      <c r="B450" s="27" t="s">
+    <row r="451" spans="2:2">
+      <c r="B451" s="18" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="451" spans="2:2">
-      <c r="B451" s="27" t="s">
+    <row r="452" spans="2:2">
+      <c r="B452" s="18"/>
+    </row>
+    <row r="453" spans="2:2">
+      <c r="B453" s="18"/>
+    </row>
+    <row r="454" spans="2:2">
+      <c r="B454" s="18"/>
+    </row>
+    <row r="455" spans="2:2">
+      <c r="B455" s="18" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="452" spans="2:2">
-      <c r="B452" s="27"/>
-    </row>
-    <row r="453" spans="2:2">
-      <c r="B453" s="27"/>
-    </row>
-    <row r="454" spans="2:2">
-      <c r="B454" s="27"/>
-    </row>
-    <row r="455" spans="2:2">
-      <c r="B455" s="27" t="s">
+    <row r="456" spans="2:2">
+      <c r="B456" s="18" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="456" spans="2:2">
-      <c r="B456" s="27" t="s">
+    <row r="457" spans="2:2">
+      <c r="B457" s="18" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="457" spans="2:2">
-      <c r="B457" s="27" t="s">
+    <row r="458" spans="2:2">
+      <c r="B458" s="16"/>
+    </row>
+    <row r="459" spans="2:2">
+      <c r="B459" s="16"/>
+    </row>
+    <row r="460" spans="2:2">
+      <c r="B460" s="18" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="458" spans="2:2">
-      <c r="B458" s="25"/>
-    </row>
-    <row r="459" spans="2:2">
-      <c r="B459" s="25"/>
-    </row>
-    <row r="460" spans="2:2">
-      <c r="B460" s="27" t="s">
+    <row r="461" spans="2:2">
+      <c r="B461" s="18" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="461" spans="2:2">
-      <c r="B461" s="27" t="s">
+    <row r="462" spans="2:2">
+      <c r="B462" s="18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="462" spans="2:2">
-      <c r="B462" s="27" t="s">
+    <row r="463" spans="2:2">
+      <c r="B463" s="18" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="463" spans="2:2">
-      <c r="B463" s="27" t="s">
+    <row r="464" spans="2:2">
+      <c r="B464" s="18" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="464" spans="2:2">
-      <c r="B464" s="27" t="s">
+    <row r="465" spans="2:2">
+      <c r="B465" s="18" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="465" spans="2:2">
-      <c r="B465" s="27" t="s">
+    <row r="466" spans="2:2">
+      <c r="B466" s="18" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="466" spans="2:2">
-      <c r="B466" s="27" t="s">
+    <row r="467" spans="2:2">
+      <c r="B467" s="16"/>
+    </row>
+    <row r="468" spans="2:2">
+      <c r="B468" s="16"/>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469" s="16"/>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470" s="16"/>
+    </row>
+    <row r="471" spans="2:2">
+      <c r="B471" s="16"/>
+    </row>
+    <row r="472" spans="2:2">
+      <c r="B472" s="16"/>
+    </row>
+    <row r="473" spans="2:2">
+      <c r="B473" s="16"/>
+    </row>
+    <row r="474" spans="2:2">
+      <c r="B474" s="16"/>
+    </row>
+    <row r="475" spans="2:2">
+      <c r="B475" s="16"/>
+    </row>
+    <row r="476" spans="2:2">
+      <c r="B476" s="16"/>
+    </row>
+    <row r="477" spans="2:2">
+      <c r="B477" s="16"/>
+    </row>
+    <row r="478" spans="2:2">
+      <c r="B478" s="16"/>
+    </row>
+    <row r="479" spans="2:2">
+      <c r="B479" s="16"/>
+    </row>
+    <row r="480" spans="2:2">
+      <c r="B480" s="16"/>
+    </row>
+    <row r="481" spans="2:2">
+      <c r="B481" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="467" spans="2:2">
-      <c r="B467" s="25"/>
-    </row>
-    <row r="468" spans="2:2">
-      <c r="B468" s="25"/>
-    </row>
-    <row r="469" spans="2:2">
-      <c r="B469" s="25"/>
-    </row>
-    <row r="470" spans="2:2">
-      <c r="B470" s="25"/>
-    </row>
-    <row r="471" spans="2:2">
-      <c r="B471" s="25"/>
-    </row>
-    <row r="472" spans="2:2">
-      <c r="B472" s="25"/>
-    </row>
-    <row r="473" spans="2:2">
-      <c r="B473" s="25"/>
-    </row>
-    <row r="474" spans="2:2">
-      <c r="B474" s="25"/>
-    </row>
-    <row r="475" spans="2:2">
-      <c r="B475" s="25"/>
-    </row>
-    <row r="476" spans="2:2">
-      <c r="B476" s="25"/>
-    </row>
-    <row r="477" spans="2:2">
-      <c r="B477" s="25"/>
-    </row>
-    <row r="478" spans="2:2">
-      <c r="B478" s="25"/>
-    </row>
-    <row r="479" spans="2:2">
-      <c r="B479" s="25"/>
-    </row>
-    <row r="480" spans="2:2">
-      <c r="B480" s="25"/>
-    </row>
-    <row r="481" spans="2:2">
-      <c r="B481" s="27" t="s">
+    <row r="482" spans="2:2">
+      <c r="B482" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="482" spans="2:2">
-      <c r="B482" s="27" t="s">
+    <row r="483" spans="2:2">
+      <c r="B483" s="18" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="483" spans="2:2">
-      <c r="B483" s="27" t="s">
+    <row r="484" spans="2:2">
+      <c r="B484" s="18" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="484" spans="2:2">
-      <c r="B484" s="27" t="s">
+    <row r="485" spans="2:2">
+      <c r="B485" s="18" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="485" spans="2:2">
-      <c r="B485" s="27" t="s">
+    <row r="486" spans="2:2">
+      <c r="B486" s="16"/>
+    </row>
+    <row r="487" spans="2:2">
+      <c r="B487" s="16"/>
+    </row>
+    <row r="488" spans="2:2">
+      <c r="B488" s="16"/>
+    </row>
+    <row r="489" spans="2:2">
+      <c r="B489" s="16"/>
+    </row>
+    <row r="490" spans="2:2">
+      <c r="B490" s="16"/>
+    </row>
+    <row r="491" spans="2:2">
+      <c r="B491" s="16"/>
+    </row>
+    <row r="492" spans="2:2">
+      <c r="B492" s="16"/>
+    </row>
+    <row r="493" spans="2:2">
+      <c r="B493" s="16"/>
+    </row>
+    <row r="494" spans="2:2">
+      <c r="B494" s="16"/>
+    </row>
+    <row r="495" spans="2:2">
+      <c r="B495" s="16"/>
+    </row>
+    <row r="496" spans="2:2">
+      <c r="B496" s="16"/>
+    </row>
+    <row r="497" spans="2:2">
+      <c r="B497" s="18" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="486" spans="2:2">
-      <c r="B486" s="25"/>
-    </row>
-    <row r="487" spans="2:2">
-      <c r="B487" s="25"/>
-    </row>
-    <row r="488" spans="2:2">
-      <c r="B488" s="25"/>
-    </row>
-    <row r="489" spans="2:2">
-      <c r="B489" s="25"/>
-    </row>
-    <row r="490" spans="2:2">
-      <c r="B490" s="25"/>
-    </row>
-    <row r="491" spans="2:2">
-      <c r="B491" s="25"/>
-    </row>
-    <row r="492" spans="2:2">
-      <c r="B492" s="25"/>
-    </row>
-    <row r="493" spans="2:2">
-      <c r="B493" s="25"/>
-    </row>
-    <row r="494" spans="2:2">
-      <c r="B494" s="25"/>
-    </row>
-    <row r="495" spans="2:2">
-      <c r="B495" s="25"/>
-    </row>
-    <row r="496" spans="2:2">
-      <c r="B496" s="25"/>
-    </row>
-    <row r="497" spans="2:2">
-      <c r="B497" s="27" t="s">
+    <row r="498" spans="2:2">
+      <c r="B498" s="18" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="498" spans="2:2">
-      <c r="B498" s="27" t="s">
+    <row r="499" spans="2:2">
+      <c r="B499" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="499" spans="2:2">
-      <c r="B499" s="27" t="s">
+    <row r="500" spans="2:2">
+      <c r="B500" s="18" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="500" spans="2:2">
-      <c r="B500" s="27" t="s">
+    <row r="501" spans="2:2">
+      <c r="B501" s="18"/>
+    </row>
+    <row r="502" spans="2:2">
+      <c r="B502" s="16"/>
+    </row>
+    <row r="503" spans="2:2">
+      <c r="B503" s="16"/>
+    </row>
+    <row r="504" spans="2:2">
+      <c r="B504" s="16"/>
+    </row>
+    <row r="505" spans="2:2">
+      <c r="B505" s="16"/>
+    </row>
+    <row r="506" spans="2:2">
+      <c r="B506" s="16"/>
+    </row>
+    <row r="507" spans="2:2">
+      <c r="B507" s="16"/>
+    </row>
+    <row r="508" spans="2:2">
+      <c r="B508" s="16"/>
+    </row>
+    <row r="509" spans="2:2">
+      <c r="B509" s="16"/>
+    </row>
+    <row r="510" spans="2:2">
+      <c r="B510" s="18" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="501" spans="2:2">
-      <c r="B501" s="27"/>
-    </row>
-    <row r="502" spans="2:2">
-      <c r="B502" s="25"/>
-    </row>
-    <row r="503" spans="2:2">
-      <c r="B503" s="25"/>
-    </row>
-    <row r="504" spans="2:2">
-      <c r="B504" s="25"/>
-    </row>
-    <row r="505" spans="2:2">
-      <c r="B505" s="25"/>
-    </row>
-    <row r="506" spans="2:2">
-      <c r="B506" s="25"/>
-    </row>
-    <row r="507" spans="2:2">
-      <c r="B507" s="25"/>
-    </row>
-    <row r="508" spans="2:2">
-      <c r="B508" s="25"/>
-    </row>
-    <row r="509" spans="2:2">
-      <c r="B509" s="25"/>
-    </row>
-    <row r="510" spans="2:2">
-      <c r="B510" s="27" t="s">
+    <row r="511" spans="2:2">
+      <c r="B511" s="18" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="511" spans="2:2">
-      <c r="B511" s="27" t="s">
+    <row r="512" spans="2:2">
+      <c r="B512" s="18" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="512" spans="2:2">
-      <c r="B512" s="27" t="s">
+    <row r="513" spans="2:2">
+      <c r="B513" s="18" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="513" spans="2:2">
-      <c r="B513" s="27" t="s">
+    <row r="514" spans="2:2">
+      <c r="B514" s="18" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="514" spans="2:2">
-      <c r="B514" s="27" t="s">
+    <row r="515" spans="2:2">
+      <c r="B515" s="18" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="515" spans="2:2">
-      <c r="B515" s="27" t="s">
+    <row r="516" spans="2:2">
+      <c r="B516" s="18" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="516" spans="2:2">
-      <c r="B516" s="27" t="s">
+    <row r="517" spans="2:2">
+      <c r="B517" s="18"/>
+    </row>
+    <row r="518" spans="2:2">
+      <c r="B518" s="16"/>
+    </row>
+    <row r="519" spans="2:2">
+      <c r="B519" s="16"/>
+    </row>
+    <row r="520" spans="2:2">
+      <c r="B520" s="16"/>
+    </row>
+    <row r="521" spans="2:2">
+      <c r="B521" s="16"/>
+    </row>
+    <row r="522" spans="2:2">
+      <c r="B522" s="16"/>
+    </row>
+    <row r="523" spans="2:2">
+      <c r="B523" s="16"/>
+    </row>
+    <row r="524" spans="2:2">
+      <c r="B524" s="16"/>
+    </row>
+    <row r="525" spans="2:2">
+      <c r="B525" s="16"/>
+    </row>
+    <row r="526" spans="2:2">
+      <c r="B526" s="16"/>
+    </row>
+    <row r="527" spans="2:2">
+      <c r="B527" s="16"/>
+    </row>
+    <row r="528" spans="2:2">
+      <c r="B528" s="16"/>
+    </row>
+    <row r="529" spans="2:2">
+      <c r="B529" s="16"/>
+    </row>
+    <row r="530" spans="2:2">
+      <c r="B530" s="16"/>
+    </row>
+    <row r="531" spans="2:2">
+      <c r="B531" s="16"/>
+    </row>
+    <row r="532" spans="2:2">
+      <c r="B532" s="16"/>
+    </row>
+    <row r="533" spans="2:2">
+      <c r="B533" s="16"/>
+    </row>
+    <row r="534" spans="2:2">
+      <c r="B534" s="16"/>
+    </row>
+    <row r="535" spans="2:2">
+      <c r="B535" s="16"/>
+    </row>
+    <row r="536" spans="2:2">
+      <c r="B536" s="16"/>
+    </row>
+    <row r="537" spans="2:2">
+      <c r="B537" s="16"/>
+    </row>
+    <row r="538" spans="2:2">
+      <c r="B538" s="16"/>
+    </row>
+    <row r="539" spans="2:2">
+      <c r="B539" s="18" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="517" spans="2:2">
-      <c r="B517" s="27"/>
-    </row>
-    <row r="518" spans="2:2">
-      <c r="B518" s="25"/>
-    </row>
-    <row r="519" spans="2:2">
-      <c r="B519" s="25"/>
-    </row>
-    <row r="520" spans="2:2">
-      <c r="B520" s="25"/>
-    </row>
-    <row r="521" spans="2:2">
-      <c r="B521" s="25"/>
-    </row>
-    <row r="522" spans="2:2">
-      <c r="B522" s="25"/>
-    </row>
-    <row r="523" spans="2:2">
-      <c r="B523" s="25"/>
-    </row>
-    <row r="524" spans="2:2">
-      <c r="B524" s="25"/>
-    </row>
-    <row r="525" spans="2:2">
-      <c r="B525" s="25"/>
-    </row>
-    <row r="526" spans="2:2">
-      <c r="B526" s="25"/>
-    </row>
-    <row r="527" spans="2:2">
-      <c r="B527" s="25"/>
-    </row>
-    <row r="528" spans="2:2">
-      <c r="B528" s="25"/>
-    </row>
-    <row r="529" spans="2:2">
-      <c r="B529" s="25"/>
-    </row>
-    <row r="530" spans="2:2">
-      <c r="B530" s="25"/>
-    </row>
-    <row r="531" spans="2:2">
-      <c r="B531" s="25"/>
-    </row>
-    <row r="532" spans="2:2">
-      <c r="B532" s="25"/>
-    </row>
-    <row r="533" spans="2:2">
-      <c r="B533" s="25"/>
-    </row>
-    <row r="534" spans="2:2">
-      <c r="B534" s="25"/>
-    </row>
-    <row r="535" spans="2:2">
-      <c r="B535" s="25"/>
-    </row>
-    <row r="536" spans="2:2">
-      <c r="B536" s="25"/>
-    </row>
-    <row r="537" spans="2:2">
-      <c r="B537" s="25"/>
-    </row>
-    <row r="538" spans="2:2">
-      <c r="B538" s="25"/>
-    </row>
-    <row r="539" spans="2:2">
-      <c r="B539" s="27" t="s">
+    <row r="540" spans="2:2">
+      <c r="B540" s="18" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="540" spans="2:2">
-      <c r="B540" s="27" t="s">
+    <row r="541" spans="2:2">
+      <c r="B541" s="18" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="541" spans="2:2">
-      <c r="B541" s="27" t="s">
+    <row r="542" spans="2:2">
+      <c r="B542" s="18" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="542" spans="2:2">
-      <c r="B542" s="27" t="s">
+    <row r="543" spans="2:2">
+      <c r="B543" s="16"/>
+    </row>
+    <row r="544" spans="2:2">
+      <c r="B544" s="16"/>
+    </row>
+    <row r="545" spans="2:2">
+      <c r="B545" s="16"/>
+    </row>
+    <row r="546" spans="2:2">
+      <c r="B546" s="16"/>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" s="16"/>
+    </row>
+    <row r="548" spans="2:2">
+      <c r="B548" s="16"/>
+    </row>
+    <row r="549" spans="2:2">
+      <c r="B549" s="16"/>
+    </row>
+    <row r="550" spans="2:2">
+      <c r="B550" s="16"/>
+    </row>
+    <row r="551" spans="2:2">
+      <c r="B551" s="16"/>
+    </row>
+    <row r="552" spans="2:2">
+      <c r="B552" s="18" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="543" spans="2:2">
-      <c r="B543" s="25"/>
-    </row>
-    <row r="544" spans="2:2">
-      <c r="B544" s="25"/>
-    </row>
-    <row r="545" spans="2:2">
-      <c r="B545" s="25"/>
-    </row>
-    <row r="546" spans="2:2">
-      <c r="B546" s="25"/>
-    </row>
-    <row r="547" spans="2:2">
-      <c r="B547" s="25"/>
-    </row>
-    <row r="548" spans="2:2">
-      <c r="B548" s="25"/>
-    </row>
-    <row r="549" spans="2:2">
-      <c r="B549" s="25"/>
-    </row>
-    <row r="550" spans="2:2">
-      <c r="B550" s="25"/>
-    </row>
-    <row r="551" spans="2:2">
-      <c r="B551" s="25"/>
-    </row>
-    <row r="552" spans="2:2">
-      <c r="B552" s="27" t="s">
+    <row r="553" spans="2:2">
+      <c r="B553" s="18" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="553" spans="2:2">
-      <c r="B553" s="27" t="s">
+    <row r="554" spans="2:2">
+      <c r="B554" s="18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="554" spans="2:2">
-      <c r="B554" s="27" t="s">
+    <row r="555" spans="2:2">
+      <c r="B555" s="18" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="555" spans="2:2">
-      <c r="B555" s="27" t="s">
+    <row r="556" spans="2:2">
+      <c r="B556" s="18" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="556" spans="2:2">
-      <c r="B556" s="27" t="s">
+    <row r="557" spans="2:2">
+      <c r="B557" s="18" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="557" spans="2:2">
-      <c r="B557" s="27" t="s">
-        <v>304</v>
-      </c>
-    </row>
     <row r="558" spans="2:2">
-      <c r="B558" s="27"/>
+      <c r="B558" s="18"/>
     </row>
     <row r="559" spans="2:2">
-      <c r="B559" s="27"/>
+      <c r="B559" s="18"/>
     </row>
     <row r="560" spans="2:2">
-      <c r="B560" s="27"/>
+      <c r="B560" s="18"/>
     </row>
     <row r="561" spans="2:2">
-      <c r="B561" s="27"/>
+      <c r="B561" s="18"/>
     </row>
     <row r="562" spans="2:2">
-      <c r="B562" s="27"/>
+      <c r="B562" s="18"/>
     </row>
     <row r="563" spans="2:2">
-      <c r="B563" s="27"/>
+      <c r="B563" s="18"/>
     </row>
     <row r="564" spans="2:2">
-      <c r="B564" s="27"/>
+      <c r="B564" s="18"/>
     </row>
     <row r="565" spans="2:2">
-      <c r="B565" s="27"/>
+      <c r="B565" s="18"/>
     </row>
     <row r="566" spans="2:2">
-      <c r="B566" s="27"/>
+      <c r="B566" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11301,7 +11301,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="B106" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -11427,7 +11427,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11437,12 +11437,12 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -11466,7 +11466,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11476,12 +11476,12 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
